--- a/test_data/login_interface.xlsx
+++ b/test_data/login_interface.xlsx
@@ -1292,18 +1292,42 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D2" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId7"/>
-    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D3" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId8"/>
-    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D4" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId9"/>
-    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D5" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId10"/>
-    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D6" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId11"/>
-    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D7" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId12"/>
-    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D2" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId7"/>
-    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D3" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId8"/>
-    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D4" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId9"/>
-    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D5" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId10"/>
-    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D6" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId11"/>
-    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D7" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId12"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D2" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId31"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D3" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId32"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D4" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId33"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D5" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId34"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D6" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId35"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D7" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId36"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D2" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId31"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D3" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId32"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D4" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId33"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D5" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId34"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D6" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId35"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D7" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId36"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D2" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId31"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D3" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId32"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D4" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId33"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D5" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId34"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D6" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId35"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D7" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId36"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D2" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId31"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D3" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId32"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D4" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId33"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D5" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId34"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D6" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId35"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D7" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId36"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D2" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId31"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D3" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId32"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D4" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId33"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D5" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId34"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D6" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId35"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D7" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId36"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D2" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId31"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D3" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId32"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D4" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId33"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D5" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId34"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D6" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId35"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="D7" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId36"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1333,7 +1357,7 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>15019215356</v>
+        <v>15019215357</v>
       </c>
     </row>
   </sheetData>
@@ -1649,18 +1673,42 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D2" r:id="rId7"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D3" r:id="rId8"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D4" r:id="rId9"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D5" r:id="rId10"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D6" r:id="rId11"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D7" r:id="rId12"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D2" r:id="rId7"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D3" r:id="rId8"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D4" r:id="rId9"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D5" r:id="rId10"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D6" r:id="rId11"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D7" r:id="rId12"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D2" r:id="rId31"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D3" r:id="rId32"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D4" r:id="rId33"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D5" r:id="rId34"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D6" r:id="rId35"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D7" r:id="rId36"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D2" r:id="rId31"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D3" r:id="rId32"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D4" r:id="rId33"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D5" r:id="rId34"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D6" r:id="rId35"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D7" r:id="rId36"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D2" r:id="rId31"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D3" r:id="rId32"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D4" r:id="rId33"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D5" r:id="rId34"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D6" r:id="rId35"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D7" r:id="rId36"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D2" r:id="rId31"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D3" r:id="rId32"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D4" r:id="rId33"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D5" r:id="rId34"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D6" r:id="rId35"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D7" r:id="rId36"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D2" r:id="rId31"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D3" r:id="rId32"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D4" r:id="rId33"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D5" r:id="rId34"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D6" r:id="rId35"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D7" r:id="rId36"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D2" r:id="rId31"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D3" r:id="rId32"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D4" r:id="rId33"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D5" r:id="rId34"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D6" r:id="rId35"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D7" r:id="rId36"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1914,18 +1962,42 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D2" r:id="rId7"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D3" r:id="rId8"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D4" r:id="rId9"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D5" r:id="rId10"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D6" r:id="rId11"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D7" r:id="rId12"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D2" r:id="rId7"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D3" r:id="rId8"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D4" r:id="rId9"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D5" r:id="rId10"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D6" r:id="rId11"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D7" r:id="rId12"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D2" r:id="rId31"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D3" r:id="rId32"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D4" r:id="rId33"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D5" r:id="rId34"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D6" r:id="rId35"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D7" r:id="rId36"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D2" r:id="rId31"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D3" r:id="rId32"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D4" r:id="rId33"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D5" r:id="rId34"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D6" r:id="rId35"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D7" r:id="rId36"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D2" r:id="rId31"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D3" r:id="rId32"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D4" r:id="rId33"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D5" r:id="rId34"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D6" r:id="rId35"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D7" r:id="rId36"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D2" r:id="rId31"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D3" r:id="rId32"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D4" r:id="rId33"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D5" r:id="rId34"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D6" r:id="rId35"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D7" r:id="rId36"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D2" r:id="rId31"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D3" r:id="rId32"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D4" r:id="rId33"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D5" r:id="rId34"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D6" r:id="rId35"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D7" r:id="rId36"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D2" r:id="rId31"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D3" r:id="rId32"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D4" r:id="rId33"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D5" r:id="rId34"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D6" r:id="rId35"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D7" r:id="rId36"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
